--- a/post/trend-analysis/Statista.xlsx
+++ b/post/trend-analysis/Statista.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Researches\Virtual Net\Evidences\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11985"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2183" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="817">
   <si>
     <t>Device</t>
   </si>
@@ -2583,6 +2583,9 @@
   </si>
   <si>
     <t>Creativity</t>
+  </si>
+  <si>
+    <t>Inclusion of statistics</t>
   </si>
 </sst>
 </file>
@@ -2977,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3045,35 +3048,43 @@
         <v>489</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B8" s="6">
         <v>538</v>
       </c>
-      <c r="B8" s="10" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+    <row r="10" spans="1:2" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B10" s="11" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+    <row r="11" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>550</v>
       </c>
     </row>
@@ -3088,8 +3099,8 @@
   <dimension ref="A1:F582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D411" sqref="D411"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11086,9 +11097,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
